--- a/xlsx/伊斯蘭教_intext.xlsx
+++ b/xlsx/伊斯蘭教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1380">
   <si>
     <t>伊斯蘭教</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿拉伯文</t>
   </si>
   <si>
-    <t>政策_政策_行政_伊斯蘭教</t>
+    <t>体育运动_体育运动_伊朗_伊斯蘭教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -1178,478 +1178,472 @@
     <t>動員</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%8B%8F%E5%A7%86%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿克苏姆帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%8B%89%E5%8B%92</t>
+  </si>
+  <si>
+    <t>比拉勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%90%89%E6%8B%89</t>
+  </si>
+  <si>
+    <t>希吉拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9C%B0%E9%82%A3</t>
+  </si>
+  <si>
+    <t>麥地那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B7%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>遷士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>輔士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>神權政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E4%BB%A3%E6%AF%94%E4%BA%9A%E5%92%8C%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>侯代比亚和约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%A6%AC%E5%88%A9%E5%85%8B%C2%B7%E6%9C%AC%C2%B7%E9%A6%AC%E7%88%BE%E8%90%AC%C2%B7%E6%9C%AC%C2%B7%E5%93%88%E5%8D%A1%E5%A7%86</t>
+  </si>
+  <si>
+    <t>阿卜杜勒-馬利克·本·馬爾萬·本·哈卡姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%86%E9%A1%B6%E6%B8%85%E7%9C%9F%E5%AF%BA</t>
+  </si>
+  <si>
+    <t>圆顶清真寺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E7%9A%84%E5%BE%81%E6%9C%8D</t>
+  </si>
+  <si>
+    <t>穆斯林的征服</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E4%BC%AF%E5%85%8B%E5%B0%94</t>
+  </si>
+  <si>
+    <t>阿布·伯克尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
+  </si>
+  <si>
+    <t>哈里發</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>敘利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%87%A1</t>
+  </si>
+  <si>
+    <t>奥斯曼·本·阿凡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E6%AF%94%C2%B7%E5%A1%94%E5%88%A9%E5%8D%9C</t>
+  </si>
+  <si>
+    <t>阿里·本·阿比·塔利卜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A1%91%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E9%87%8C%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E6%AF%94%C2%B7%E5%A1%94%E5%88%A9%E5%8D%9C</t>
+  </si>
+  <si>
+    <t>哈桑·本·阿里·本·阿比·塔利卜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E5%93%88%E9%87%8C%E5%8F%91</t>
+  </si>
+  <si>
+    <t>四大哈里发</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E5%A8%81%E8%91%89%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>穆阿威葉一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%94%E6%96%AF%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E7%A9%86%E5%A1%94%E5%88%A9%E5%8D%9C%C2%B7%E6%9C%AC%C2%B7%E5%93%88%E5%B8%8C%E5%A7%86</t>
+  </si>
+  <si>
+    <t>阿拔斯·本·阿卜杜勒-穆塔利卜·本·哈希姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%93%A6%E9%87%8C</t>
+  </si>
+  <si>
+    <t>馬瓦里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E7%A9%86%E6%96%AF%E6%9E%97</t>
+  </si>
+  <si>
+    <t>阿布·穆斯林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%B3%95%E5%B0%94%C2%B7%E8%90%A8%E8%BF%AA%E5%85%8B</t>
+  </si>
+  <si>
+    <t>贾法尔·萨迪克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%B3%95%E9%87%8C%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>賈法里派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%B9%E6%B5%B7%E5%B8%83</t>
+  </si>
+  <si>
+    <t>麦兹海布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%B9%83%E6%96%90%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>哈乃斐派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%95%E7%99%BE%E9%87%8C%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>罕百里派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%AB%8B%E5%85%8B%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>马立克派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%90%E5%84%80%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>沙斐儀派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E5%93%88%E5%B0%BC%E6%B3%95</t>
+  </si>
+  <si>
+    <t>阿布·哈尼法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E4%BC%8A%E6%9C%AC%C2%B7%E8%B4%BE%E9%87%8C%E5%B0%94%C2%B7%E5%A1%94%E5%B7%B4%E9%87%8C</t>
+  </si>
+  <si>
+    <t>穆罕默德·伊本·贾里尔·塔巴里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%A5%BF%E9%82%A3</t>
+  </si>
+  <si>
+    <t>伊本·西那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E6%AF%94</t>
+  </si>
+  <si>
+    <t>法拉比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E5%93%88%E7%B1%B3%E5%BE%B7%C2%B7%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E4%BC%8A%E6%9C%AC%C2%B7%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E8%96%A9%E5%88%A9</t>
+  </si>
+  <si>
+    <t>阿布·哈米德·穆罕默德·伊本·穆罕默德·安薩利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E9%98%BF%E6%8B%94%E6%96%AF%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E9%A9%AC%E8%92%99%C2%B7%E6%9C%AC%C2%B7%E5%93%88%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>阿布·阿拔斯·阿卜杜拉·马蒙·本·哈伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E5%8F%B0%E7%BB%A5%E5%A7%86</t>
+  </si>
+  <si>
+    <t>穆阿台绥姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%AF%E8%AD%89%E6%B3%95</t>
+  </si>
+  <si>
+    <t>辯證法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
+  </si>
+  <si>
+    <t>巴格達</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BB%80%E5%B0%94%E9%87%8C</t>
+  </si>
+  <si>
+    <t>艾什尔里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E9%87%8C%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>塔里卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E4%BC%8A%E5%BE%B7%E9%87%8C%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>穆罕默德·伊德里西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E4%B8%96%E7%95%8C%E5%9C%B0%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>早期世界地图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>伊斯蘭黃金時代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%AD%AF%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>卡魯因大學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E6%96%AF%E4%B8%96%E7%95%8C%E7%BA%AA%E5%BD%95%E5%A4%A7%E5%85%A8</t>
+  </si>
+  <si>
+    <t>吉尼斯世界纪录大全</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>博士学位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>教統</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97</t>
+  </si>
+  <si>
+    <t>實驗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%87%8F</t>
+  </si>
+  <si>
+    <t>定量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BB%80%E6%9C%A8</t>
+  </si>
+  <si>
+    <t>海什木</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>科學方法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E5%93%A5%E7%99%BD%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>尼古拉·哥白尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BF%83%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>日心說</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%81%B8%E6%93%87</t>
+  </si>
+  <si>
+    <t>自然選擇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>魯米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>詩歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>蒙古帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%87%8C%E8%98%87%E4%B8%B9%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德里蘇丹國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E5%8A%A0%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>伏爾加保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>宋朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>奧斯曼王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%82%81%E5%90%89%E5%BE%B7%E4%BA%8C%E4%B8%96</t>
+  </si>
+  <si>
+    <t>阿卜杜勒-邁吉德二世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%96%80%E7%AD%94%E8%87%98</t>
+  </si>
+  <si>
+    <t>蘇門答臘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>廣州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>馬里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%B5%AB%E5%8B%92</t>
+  </si>
+  <si>
+    <t>薩赫勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>尼日河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尼日利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>蘇丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%AF%94%E4%BA%9A%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>努比亚人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E5%BE%B7%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>宰德派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%9D%9E%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>薩非王朝</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E4%BC%8A%E7%8E%9B%E7%9B%AE%E6%B4%BE</t>
   </si>
   <si>
     <t>十二伊玛目派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%B5%AB%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>马赫迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%8B%8F%E5%A7%86%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿克苏姆帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%8B%89%E5%8B%92</t>
-  </si>
-  <si>
-    <t>比拉勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%90%89%E6%8B%89</t>
-  </si>
-  <si>
-    <t>希吉拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9C%B0%E9%82%A3</t>
-  </si>
-  <si>
-    <t>麥地那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B7%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>遷士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>輔士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>神權政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E4%BB%A3%E6%AF%94%E4%BA%9A%E5%92%8C%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>侯代比亚和约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%A6%AC%E5%88%A9%E5%85%8B%C2%B7%E6%9C%AC%C2%B7%E9%A6%AC%E7%88%BE%E8%90%AC%C2%B7%E6%9C%AC%C2%B7%E5%93%88%E5%8D%A1%E5%A7%86</t>
-  </si>
-  <si>
-    <t>阿卜杜勒-馬利克·本·馬爾萬·本·哈卡姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%86%E9%A1%B6%E6%B8%85%E7%9C%9F%E5%AF%BA</t>
-  </si>
-  <si>
-    <t>圆顶清真寺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E7%9A%84%E5%BE%81%E6%9C%8D</t>
-  </si>
-  <si>
-    <t>穆斯林的征服</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E4%BC%AF%E5%85%8B%E5%B0%94</t>
-  </si>
-  <si>
-    <t>阿布·伯克尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
-  </si>
-  <si>
-    <t>哈里發</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%87%A1</t>
-  </si>
-  <si>
-    <t>奥斯曼·本·阿凡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E6%AF%94%C2%B7%E5%A1%94%E5%88%A9%E5%8D%9C</t>
-  </si>
-  <si>
-    <t>阿里·本·阿比·塔利卜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A1%91%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E9%87%8C%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E6%AF%94%C2%B7%E5%A1%94%E5%88%A9%E5%8D%9C</t>
-  </si>
-  <si>
-    <t>哈桑·本·阿里·本·阿比·塔利卜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E5%93%88%E9%87%8C%E5%8F%91</t>
-  </si>
-  <si>
-    <t>四大哈里发</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E5%A8%81%E8%91%89%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>穆阿威葉一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%94%E6%96%AF%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E7%A9%86%E5%A1%94%E5%88%A9%E5%8D%9C%C2%B7%E6%9C%AC%C2%B7%E5%93%88%E5%B8%8C%E5%A7%86</t>
-  </si>
-  <si>
-    <t>阿拔斯·本·阿卜杜勒-穆塔利卜·本·哈希姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%93%A6%E9%87%8C</t>
-  </si>
-  <si>
-    <t>馬瓦里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E7%A9%86%E6%96%AF%E6%9E%97</t>
-  </si>
-  <si>
-    <t>阿布·穆斯林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%B3%95%E5%B0%94%C2%B7%E8%90%A8%E8%BF%AA%E5%85%8B</t>
-  </si>
-  <si>
-    <t>贾法尔·萨迪克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%B3%95%E9%87%8C%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>賈法里派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%B9%E6%B5%B7%E5%B8%83</t>
-  </si>
-  <si>
-    <t>麦兹海布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%B9%83%E6%96%90%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>哈乃斐派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%95%E7%99%BE%E9%87%8C%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>罕百里派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%AB%8B%E5%85%8B%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>马立克派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%90%E5%84%80%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>沙斐儀派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E5%93%88%E5%B0%BC%E6%B3%95</t>
-  </si>
-  <si>
-    <t>阿布·哈尼法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E4%BC%8A%E6%9C%AC%C2%B7%E8%B4%BE%E9%87%8C%E5%B0%94%C2%B7%E5%A1%94%E5%B7%B4%E9%87%8C</t>
-  </si>
-  <si>
-    <t>穆罕默德·伊本·贾里尔·塔巴里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%A5%BF%E9%82%A3</t>
-  </si>
-  <si>
-    <t>伊本·西那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E6%AF%94</t>
-  </si>
-  <si>
-    <t>法拉比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E5%93%88%E7%B1%B3%E5%BE%B7%C2%B7%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E4%BC%8A%E6%9C%AC%C2%B7%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E8%96%A9%E5%88%A9</t>
-  </si>
-  <si>
-    <t>阿布·哈米德·穆罕默德·伊本·穆罕默德·安薩利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E9%98%BF%E6%8B%94%E6%96%AF%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E9%A9%AC%E8%92%99%C2%B7%E6%9C%AC%C2%B7%E5%93%88%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>阿布·阿拔斯·阿卜杜拉·马蒙·本·哈伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E5%8F%B0%E7%BB%A5%E5%A7%86</t>
-  </si>
-  <si>
-    <t>穆阿台绥姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%AF%E8%AD%89%E6%B3%95</t>
-  </si>
-  <si>
-    <t>辯證法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
-  </si>
-  <si>
-    <t>巴格達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BB%80%E5%B0%94%E9%87%8C</t>
-  </si>
-  <si>
-    <t>艾什尔里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E9%87%8C%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>塔里卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E4%BC%8A%E5%BE%B7%E9%87%8C%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>穆罕默德·伊德里西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E4%B8%96%E7%95%8C%E5%9C%B0%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>早期世界地图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>伊斯蘭黃金時代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%AD%AF%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>卡魯因大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E6%96%AF%E4%B8%96%E7%95%8C%E7%BA%AA%E5%BD%95%E5%A4%A7%E5%85%A8</t>
-  </si>
-  <si>
-    <t>吉尼斯世界纪录大全</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>博士学位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>教統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97</t>
-  </si>
-  <si>
-    <t>實驗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%87%8F</t>
-  </si>
-  <si>
-    <t>定量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BB%80%E6%9C%A8</t>
-  </si>
-  <si>
-    <t>海什木</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>科學方法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E5%93%A5%E7%99%BD%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>尼古拉·哥白尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BF%83%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>日心說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%81%B8%E6%93%87</t>
-  </si>
-  <si>
-    <t>自然選擇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>魯米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>詩歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>蒙古帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%87%8C%E8%98%87%E4%B8%B9%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德里蘇丹國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E5%8A%A0%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>伏爾加保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>宋朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>奧斯曼王朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%82%81%E5%90%89%E5%BE%B7%E4%BA%8C%E4%B8%96</t>
-  </si>
-  <si>
-    <t>阿卜杜勒-邁吉德二世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%96%80%E7%AD%94%E8%87%98</t>
-  </si>
-  <si>
-    <t>蘇門答臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>印尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>廣州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>馬里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%B5%AB%E5%8B%92</t>
-  </si>
-  <si>
-    <t>薩赫勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>尼日河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尼日利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>蘇丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%AF%94%E4%BA%9A%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>努比亚人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E5%BE%B7%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>宰德派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%9D%9E%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>薩非王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E4%B9%8B%E5%9C%8D</t>
@@ -4509,7 +4503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I767"/>
+  <dimension ref="A1:I765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4708,7 +4702,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -4766,7 +4760,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -4882,7 +4876,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -5346,7 +5340,7 @@
         <v>56</v>
       </c>
       <c r="G29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -5549,7 +5543,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -6303,7 +6297,7 @@
         <v>122</v>
       </c>
       <c r="G62" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -6361,7 +6355,7 @@
         <v>126</v>
       </c>
       <c r="G64" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -6709,7 +6703,7 @@
         <v>144</v>
       </c>
       <c r="G76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -8623,7 +8617,7 @@
         <v>238</v>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -8826,7 +8820,7 @@
         <v>248</v>
       </c>
       <c r="G149" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -11262,7 +11256,7 @@
         <v>382</v>
       </c>
       <c r="G233" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -11372,13 +11366,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="F237" t="s">
-        <v>388</v>
+        <v>54</v>
       </c>
       <c r="G237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -11401,13 +11395,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F238" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -11430,13 +11424,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="F239" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -11494,7 +11488,7 @@
         <v>394</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -11552,7 +11546,7 @@
         <v>398</v>
       </c>
       <c r="G243" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -11726,7 +11720,7 @@
         <v>410</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -11755,7 +11749,7 @@
         <v>412</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -11784,7 +11778,7 @@
         <v>414</v>
       </c>
       <c r="G251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -11813,7 +11807,7 @@
         <v>416</v>
       </c>
       <c r="G252" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -11871,7 +11865,7 @@
         <v>420</v>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -11900,7 +11894,7 @@
         <v>422</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -11929,7 +11923,7 @@
         <v>424</v>
       </c>
       <c r="G256" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11958,7 +11952,7 @@
         <v>426</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -12016,7 +12010,7 @@
         <v>430</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -12074,7 +12068,7 @@
         <v>434</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -12132,7 +12126,7 @@
         <v>438</v>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -12161,7 +12155,7 @@
         <v>440</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -12190,7 +12184,7 @@
         <v>442</v>
       </c>
       <c r="G265" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -12219,7 +12213,7 @@
         <v>444</v>
       </c>
       <c r="G266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -12335,7 +12329,7 @@
         <v>452</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -12364,7 +12358,7 @@
         <v>454</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -12393,7 +12387,7 @@
         <v>456</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -12422,7 +12416,7 @@
         <v>458</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -12451,7 +12445,7 @@
         <v>460</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -12474,13 +12468,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>461</v>
+        <v>51</v>
       </c>
       <c r="F275" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -12503,10 +12497,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F276" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12532,13 +12526,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>51</v>
+        <v>463</v>
       </c>
       <c r="F277" t="s">
-        <v>52</v>
+        <v>464</v>
       </c>
       <c r="G277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -12567,7 +12561,7 @@
         <v>466</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -12596,7 +12590,7 @@
         <v>468</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -12654,7 +12648,7 @@
         <v>472</v>
       </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -12741,7 +12735,7 @@
         <v>478</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -13089,7 +13083,7 @@
         <v>502</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -13147,7 +13141,7 @@
         <v>506</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -13205,7 +13199,7 @@
         <v>510</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -13263,7 +13257,7 @@
         <v>514</v>
       </c>
       <c r="G302" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -13350,7 +13344,7 @@
         <v>520</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -13466,7 +13460,7 @@
         <v>528</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -13524,7 +13518,7 @@
         <v>532</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -13553,7 +13547,7 @@
         <v>534</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -13582,7 +13576,7 @@
         <v>536</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -13611,7 +13605,7 @@
         <v>538</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -13640,7 +13634,7 @@
         <v>540</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -13669,7 +13663,7 @@
         <v>542</v>
       </c>
       <c r="G316" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13698,7 +13692,7 @@
         <v>544</v>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13721,13 +13715,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>387</v>
+        <v>545</v>
       </c>
       <c r="F318" t="s">
-        <v>388</v>
+        <v>546</v>
       </c>
       <c r="G318" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -13750,13 +13744,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F319" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -13779,13 +13773,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13808,13 +13802,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F321" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -13837,13 +13831,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F322" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13866,10 +13860,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F323" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13895,13 +13889,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F324" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13924,10 +13918,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F325" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13953,13 +13947,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F326" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13982,10 +13976,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F327" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -14011,10 +14005,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F328" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -14040,10 +14034,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F329" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -14069,13 +14063,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F330" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -14098,13 +14092,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F331" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -14127,13 +14121,13 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F332" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -14156,13 +14150,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F333" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G333" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -14185,13 +14179,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F334" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -14214,13 +14208,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>577</v>
+        <v>175</v>
       </c>
       <c r="F335" t="s">
-        <v>578</v>
+        <v>176</v>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -14249,7 +14243,7 @@
         <v>580</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -14272,13 +14266,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>175</v>
+        <v>581</v>
       </c>
       <c r="F337" t="s">
-        <v>176</v>
+        <v>582</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -14301,10 +14295,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F338" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14330,13 +14324,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F339" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -14359,10 +14353,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F340" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14388,13 +14382,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F341" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -14417,10 +14411,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F342" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14446,13 +14440,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F343" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -14475,10 +14469,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F344" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14504,10 +14498,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F345" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14533,10 +14527,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F346" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14562,10 +14556,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F347" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14591,13 +14585,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>601</v>
+        <v>373</v>
       </c>
       <c r="F348" t="s">
-        <v>602</v>
+        <v>374</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -14626,7 +14620,7 @@
         <v>604</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -14649,13 +14643,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>373</v>
+        <v>605</v>
       </c>
       <c r="F350" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="G350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -14678,13 +14672,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F351" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G351" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -14707,10 +14701,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F352" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14736,10 +14730,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F353" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14765,10 +14759,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>611</v>
+        <v>355</v>
       </c>
       <c r="F354" t="s">
-        <v>612</v>
+        <v>356</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14800,7 +14794,7 @@
         <v>614</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -14823,13 +14817,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>355</v>
+        <v>615</v>
       </c>
       <c r="F356" t="s">
-        <v>356</v>
+        <v>616</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14852,13 +14846,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F357" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14881,13 +14875,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F358" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -14910,13 +14904,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F359" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -14939,10 +14933,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F360" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14968,13 +14962,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>623</v>
+        <v>71</v>
       </c>
       <c r="F361" t="s">
-        <v>624</v>
+        <v>72</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -15003,7 +14997,7 @@
         <v>626</v>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -15026,13 +15020,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>71</v>
+        <v>627</v>
       </c>
       <c r="F363" t="s">
-        <v>72</v>
+        <v>628</v>
       </c>
       <c r="G363" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -15055,13 +15049,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>627</v>
+        <v>419</v>
       </c>
       <c r="F364" t="s">
-        <v>628</v>
+        <v>420</v>
       </c>
       <c r="G364" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -15084,10 +15078,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>629</v>
+        <v>363</v>
       </c>
       <c r="F365" t="s">
-        <v>630</v>
+        <v>364</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -15113,13 +15107,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>423</v>
+        <v>629</v>
       </c>
       <c r="F366" t="s">
-        <v>424</v>
+        <v>630</v>
       </c>
       <c r="G366" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -15142,10 +15136,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>363</v>
+        <v>631</v>
       </c>
       <c r="F367" t="s">
-        <v>364</v>
+        <v>632</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -15171,13 +15165,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F368" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G368" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -15200,10 +15194,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F369" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -15229,13 +15223,13 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F370" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -15258,10 +15252,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F371" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -15287,13 +15281,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F372" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -15316,10 +15310,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F373" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15345,10 +15339,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F374" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15374,10 +15368,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F375" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15403,10 +15397,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F376" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15432,10 +15426,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F377" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15461,10 +15455,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F378" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15490,13 +15484,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F379" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -15519,13 +15513,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F380" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -15548,13 +15542,13 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F381" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -15577,13 +15571,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="F382" t="s">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -15612,7 +15606,7 @@
         <v>662</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -15635,13 +15629,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>79</v>
+        <v>663</v>
       </c>
       <c r="F384" t="s">
-        <v>80</v>
+        <v>664</v>
       </c>
       <c r="G384" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15664,13 +15658,13 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F385" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G385" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -15693,13 +15687,13 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>665</v>
+        <v>93</v>
       </c>
       <c r="F386" t="s">
-        <v>666</v>
+        <v>94</v>
       </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -15722,13 +15716,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>667</v>
+        <v>93</v>
       </c>
       <c r="F387" t="s">
-        <v>668</v>
+        <v>94</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -15751,13 +15745,13 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>93</v>
+        <v>667</v>
       </c>
       <c r="F388" t="s">
-        <v>94</v>
+        <v>668</v>
       </c>
       <c r="G388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -15780,13 +15774,13 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>93</v>
+        <v>669</v>
       </c>
       <c r="F389" t="s">
-        <v>94</v>
+        <v>670</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15809,13 +15803,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F390" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15838,13 +15832,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F391" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G391" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -15867,10 +15861,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F392" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15896,10 +15890,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F393" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15925,13 +15919,13 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>677</v>
+        <v>81</v>
       </c>
       <c r="F394" t="s">
-        <v>678</v>
+        <v>82</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15960,7 +15954,7 @@
         <v>680</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15983,13 +15977,13 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>81</v>
+        <v>681</v>
       </c>
       <c r="F396" t="s">
-        <v>82</v>
+        <v>682</v>
       </c>
       <c r="G396" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -16012,13 +16006,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>681</v>
+        <v>89</v>
       </c>
       <c r="F397" t="s">
-        <v>682</v>
+        <v>90</v>
       </c>
       <c r="G397" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -16047,7 +16041,7 @@
         <v>684</v>
       </c>
       <c r="G398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -16070,13 +16064,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>89</v>
+        <v>685</v>
       </c>
       <c r="F399" t="s">
-        <v>90</v>
+        <v>686</v>
       </c>
       <c r="G399" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -16099,13 +16093,13 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F400" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G400" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -16128,13 +16122,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F401" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G401" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -16157,13 +16151,13 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F402" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G402" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -16186,10 +16180,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F403" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -16215,13 +16209,13 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F404" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -16244,10 +16238,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F405" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16273,13 +16267,13 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F406" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G406" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -16302,10 +16296,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F407" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16331,10 +16325,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F408" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16360,10 +16354,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F409" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16389,13 +16383,13 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F410" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G410" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -16418,10 +16412,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F411" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16447,13 +16441,13 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>709</v>
+        <v>391</v>
       </c>
       <c r="F412" t="s">
-        <v>710</v>
+        <v>392</v>
       </c>
       <c r="G412" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -16482,7 +16476,7 @@
         <v>712</v>
       </c>
       <c r="G413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -16505,10 +16499,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>395</v>
+        <v>713</v>
       </c>
       <c r="F414" t="s">
-        <v>396</v>
+        <v>714</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16534,13 +16528,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F415" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -16563,10 +16557,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F416" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16592,10 +16586,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F417" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16621,10 +16615,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F418" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16650,10 +16644,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F419" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16679,10 +16673,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F420" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16708,13 +16702,13 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F421" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16737,13 +16731,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F422" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16766,13 +16760,13 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F423" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16795,13 +16789,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>731</v>
+        <v>113</v>
       </c>
       <c r="F424" t="s">
-        <v>732</v>
+        <v>114</v>
       </c>
       <c r="G424" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16824,13 +16818,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>733</v>
+        <v>661</v>
       </c>
       <c r="F425" t="s">
-        <v>734</v>
+        <v>662</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16853,13 +16847,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>113</v>
+        <v>733</v>
       </c>
       <c r="F426" t="s">
-        <v>114</v>
+        <v>734</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16882,13 +16876,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>663</v>
+        <v>735</v>
       </c>
       <c r="F427" t="s">
-        <v>664</v>
+        <v>736</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16911,13 +16905,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F428" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16940,10 +16934,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F429" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16969,13 +16963,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F430" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16998,13 +16992,13 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>741</v>
+        <v>407</v>
       </c>
       <c r="F431" t="s">
-        <v>742</v>
+        <v>408</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -17033,7 +17027,7 @@
         <v>744</v>
       </c>
       <c r="G432" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -17056,13 +17050,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>411</v>
+        <v>745</v>
       </c>
       <c r="F433" t="s">
-        <v>412</v>
+        <v>746</v>
       </c>
       <c r="G433" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -17085,10 +17079,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F434" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -17114,10 +17108,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F435" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -17143,13 +17137,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>749</v>
+        <v>83</v>
       </c>
       <c r="F436" t="s">
-        <v>750</v>
+        <v>84</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -17201,13 +17195,13 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>83</v>
+        <v>753</v>
       </c>
       <c r="F438" t="s">
-        <v>84</v>
+        <v>754</v>
       </c>
       <c r="G438" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -17230,13 +17224,13 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>753</v>
+        <v>49</v>
       </c>
       <c r="F439" t="s">
-        <v>754</v>
+        <v>50</v>
       </c>
       <c r="G439" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H439" t="s">
         <v>4</v>
@@ -17259,13 +17253,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>755</v>
+        <v>283</v>
       </c>
       <c r="F440" t="s">
-        <v>756</v>
+        <v>284</v>
       </c>
       <c r="G440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -17288,13 +17282,13 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="F441" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="G441" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -17317,13 +17311,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>283</v>
+        <v>755</v>
       </c>
       <c r="F442" t="s">
-        <v>284</v>
+        <v>756</v>
       </c>
       <c r="G442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -17346,13 +17340,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F443" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -17375,13 +17369,13 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>757</v>
+        <v>307</v>
       </c>
       <c r="F444" t="s">
-        <v>758</v>
+        <v>308</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -17404,10 +17398,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="F445" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17433,13 +17427,13 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>307</v>
+        <v>51</v>
       </c>
       <c r="F446" t="s">
-        <v>308</v>
+        <v>52</v>
       </c>
       <c r="G446" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -17462,10 +17456,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>35</v>
+        <v>757</v>
       </c>
       <c r="F447" t="s">
-        <v>36</v>
+        <v>758</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17491,13 +17485,13 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>51</v>
+        <v>753</v>
       </c>
       <c r="F448" t="s">
-        <v>52</v>
+        <v>754</v>
       </c>
       <c r="G448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -17526,7 +17520,7 @@
         <v>760</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -17549,13 +17543,13 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>755</v>
+        <v>29</v>
       </c>
       <c r="F450" t="s">
-        <v>756</v>
+        <v>30</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -17584,7 +17578,7 @@
         <v>762</v>
       </c>
       <c r="G451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -17607,13 +17601,13 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="F452" t="s">
-        <v>30</v>
+        <v>764</v>
       </c>
       <c r="G452" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -17636,10 +17630,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>763</v>
+        <v>725</v>
       </c>
       <c r="F453" t="s">
-        <v>764</v>
+        <v>726</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17671,7 +17665,7 @@
         <v>766</v>
       </c>
       <c r="G454" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -17694,10 +17688,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="F455" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17723,10 +17717,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F456" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17752,10 +17746,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F457" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17781,10 +17775,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F458" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17810,13 +17804,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F459" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G459" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -17839,13 +17833,13 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F460" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17868,13 +17862,13 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F461" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G461" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -17897,13 +17891,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F462" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -17926,10 +17920,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F463" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17955,10 +17949,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F464" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17984,10 +17978,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F465" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -18013,10 +18007,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F466" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -18042,10 +18036,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F467" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -18071,10 +18065,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F468" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -18100,10 +18094,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F469" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -18129,10 +18123,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F470" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -18158,10 +18152,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F471" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18187,10 +18181,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F472" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -18216,10 +18210,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F473" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18245,10 +18239,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F474" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18274,10 +18268,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F475" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18303,10 +18297,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F476" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18332,10 +18326,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F477" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18361,10 +18355,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F478" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18390,10 +18384,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F479" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18419,10 +18413,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>815</v>
+        <v>75</v>
       </c>
       <c r="F480" t="s">
-        <v>816</v>
+        <v>76</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18454,7 +18448,7 @@
         <v>818</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -18477,10 +18471,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>75</v>
+        <v>819</v>
       </c>
       <c r="F482" t="s">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18506,13 +18500,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F483" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -18535,10 +18529,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F484" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18564,10 +18558,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F485" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18593,10 +18587,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F486" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18622,10 +18616,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F487" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18651,10 +18645,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F488" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18680,10 +18674,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F489" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18709,13 +18703,13 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F490" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -18738,13 +18732,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F491" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -18767,13 +18761,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F492" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -18796,13 +18790,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F493" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -18825,10 +18819,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F494" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18854,10 +18848,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F495" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18883,10 +18877,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F496" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18912,13 +18906,13 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F497" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -18941,13 +18935,13 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F498" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -18970,13 +18964,13 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F499" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G499" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -18999,10 +18993,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F500" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G500" t="n">
         <v>2</v>
@@ -19028,13 +19022,13 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F501" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -19057,13 +19051,13 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F502" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -19086,13 +19080,13 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F503" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -19115,13 +19109,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F504" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -19144,10 +19138,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F505" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -19173,13 +19167,13 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F506" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -19202,10 +19196,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F507" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19231,13 +19225,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F508" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -19260,13 +19254,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F509" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -19289,13 +19283,13 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F510" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -19318,13 +19312,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F511" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -19347,10 +19341,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F512" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19376,10 +19370,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F513" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19405,10 +19399,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F514" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19434,10 +19428,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F515" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19463,10 +19457,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F516" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19492,10 +19486,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F517" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19521,13 +19515,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F518" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -19550,13 +19544,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F519" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19579,13 +19573,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F520" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -19608,13 +19602,13 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F521" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -19637,10 +19631,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F522" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19666,10 +19660,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F523" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19695,10 +19689,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F524" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19724,10 +19718,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F525" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19753,10 +19747,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F526" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19782,10 +19776,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F527" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19811,10 +19805,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F528" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19840,10 +19834,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F529" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19869,10 +19863,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F530" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19898,10 +19892,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F531" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19927,10 +19921,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F532" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19956,10 +19950,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F533" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19985,13 +19979,13 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F534" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -20014,10 +20008,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F535" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -20043,13 +20037,13 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F536" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -20072,10 +20066,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F537" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -20101,10 +20095,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F538" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -20130,10 +20124,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F539" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -20159,10 +20153,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F540" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -20188,10 +20182,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F541" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -20217,10 +20211,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F542" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20246,10 +20240,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F543" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20275,10 +20269,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F544" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20304,10 +20298,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F545" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20333,10 +20327,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F546" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20362,10 +20356,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F547" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20391,10 +20385,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F548" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20420,10 +20414,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F549" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20449,10 +20443,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F550" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20478,10 +20472,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F551" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20507,10 +20501,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F552" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20536,10 +20530,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F553" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20565,10 +20559,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F554" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20594,10 +20588,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F555" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20623,10 +20617,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F556" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20652,10 +20646,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F557" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20681,10 +20675,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F558" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20710,10 +20704,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F559" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20739,10 +20733,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F560" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20768,10 +20762,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F561" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20797,10 +20791,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F562" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20826,10 +20820,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F563" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20855,10 +20849,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F564" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20884,10 +20878,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F565" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20913,10 +20907,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F566" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20942,10 +20936,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F567" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20971,10 +20965,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F568" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -21000,10 +20994,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F569" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -21029,10 +21023,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F570" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -21058,10 +21052,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F571" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -21087,10 +21081,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F572" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -21116,10 +21110,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F573" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -21145,10 +21139,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F574" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -21174,10 +21168,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F575" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -21203,10 +21197,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F576" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -21232,10 +21226,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F577" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -21261,10 +21255,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F578" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21290,10 +21284,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F579" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21319,10 +21313,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F580" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21348,10 +21342,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F581" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21377,10 +21371,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F582" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21406,10 +21400,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F583" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21435,10 +21429,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="F584" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21464,10 +21458,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F585" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21493,13 +21487,13 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F586" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G586" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H586" t="s">
         <v>4</v>
@@ -21522,10 +21516,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F587" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21551,13 +21545,13 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F588" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="G588" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -21580,10 +21574,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F589" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21609,10 +21603,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F590" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21638,10 +21632,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F591" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21667,10 +21661,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F592" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21696,10 +21690,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F593" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21725,10 +21719,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F594" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21754,10 +21748,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F595" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21783,10 +21777,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F596" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21812,10 +21806,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F597" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21841,10 +21835,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F598" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21870,10 +21864,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="F599" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21899,10 +21893,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F600" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21928,10 +21922,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F601" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21957,10 +21951,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F602" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21986,10 +21980,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="F603" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -22015,10 +22009,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F604" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -22044,10 +22038,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="F605" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -22073,10 +22067,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="F606" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -22102,10 +22096,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F607" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -22131,13 +22125,13 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F608" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -22160,10 +22154,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F609" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -22189,13 +22183,13 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F610" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="G610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -22218,10 +22212,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F611" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -22247,10 +22241,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F612" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22276,10 +22270,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F613" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -22305,10 +22299,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F614" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22334,10 +22328,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F615" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22363,10 +22357,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F616" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22392,10 +22386,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F617" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22421,10 +22415,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F618" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22450,10 +22444,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F619" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22479,10 +22473,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F620" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22508,10 +22502,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F621" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22537,10 +22531,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F622" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22566,10 +22560,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F623" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22595,10 +22589,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F624" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22624,10 +22618,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F625" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22653,10 +22647,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F626" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22682,10 +22676,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F627" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22711,10 +22705,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F628" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22740,10 +22734,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F629" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22769,13 +22763,13 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F630" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G630" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -22798,13 +22792,13 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F631" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G631" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -22827,13 +22821,13 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F632" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -22856,13 +22850,13 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F633" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -22885,10 +22879,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F634" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22914,10 +22908,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F635" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22943,10 +22937,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F636" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22972,10 +22966,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F637" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -23001,10 +22995,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F638" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -23030,13 +23024,13 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F639" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G639" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H639" t="s">
         <v>4</v>
@@ -23059,13 +23053,13 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F640" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H640" t="s">
         <v>4</v>
@@ -23088,13 +23082,13 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F641" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G641" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -23117,13 +23111,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F642" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -23146,13 +23140,13 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F643" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G643" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -23175,13 +23169,13 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F644" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23204,13 +23198,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="F645" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23233,13 +23227,13 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F646" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -23262,10 +23256,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F647" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23291,10 +23285,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F648" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23320,13 +23314,13 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F649" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H649" t="s">
         <v>4</v>
@@ -23349,10 +23343,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F650" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23378,13 +23372,13 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F651" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -23407,13 +23401,13 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="F652" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -23436,10 +23430,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F653" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23465,13 +23459,13 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F654" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="G654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
@@ -23494,13 +23488,13 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F655" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="G655" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H655" t="s">
         <v>4</v>
@@ -23523,13 +23517,13 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F656" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="G656" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H656" t="s">
         <v>4</v>
@@ -23552,13 +23546,13 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F657" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H657" t="s">
         <v>4</v>
@@ -23581,13 +23575,13 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F658" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G658" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -23610,10 +23604,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="F659" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23639,13 +23633,13 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="F660" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="G660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -23668,10 +23662,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F661" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23697,13 +23691,13 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F662" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H662" t="s">
         <v>4</v>
@@ -23726,10 +23720,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F663" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23755,10 +23749,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F664" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23784,10 +23778,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F665" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23813,10 +23807,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F666" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23842,10 +23836,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F667" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23871,13 +23865,13 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F668" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G668" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -23900,13 +23894,13 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F669" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="G669" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -23929,13 +23923,13 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F670" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G670" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -23958,10 +23952,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F671" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G671" t="n">
         <v>2</v>
@@ -23987,10 +23981,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="F672" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -24016,13 +24010,13 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F673" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -24045,10 +24039,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="F674" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -24074,10 +24068,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="F675" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -24103,10 +24097,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F676" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -24132,10 +24126,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F677" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -24161,10 +24155,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F678" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -24190,10 +24184,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F679" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -24219,13 +24213,13 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F680" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -24248,13 +24242,13 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F681" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -24277,13 +24271,13 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F682" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="G682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -24306,13 +24300,13 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="F683" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="G683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -24335,10 +24329,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="F684" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24364,10 +24358,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="F685" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24393,10 +24387,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="F686" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24422,10 +24416,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="F687" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24451,10 +24445,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="F688" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24480,10 +24474,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F689" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24509,10 +24503,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F690" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24538,10 +24532,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F691" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24567,10 +24561,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F692" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24596,10 +24590,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F693" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24625,10 +24619,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F694" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24654,10 +24648,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="F695" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -24683,10 +24677,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F696" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -24712,10 +24706,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F697" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -24741,13 +24735,13 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1249</v>
+        <v>121</v>
       </c>
       <c r="F698" t="s">
-        <v>1250</v>
+        <v>122</v>
       </c>
       <c r="G698" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H698" t="s">
         <v>4</v>
@@ -24799,13 +24793,13 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>121</v>
+        <v>1253</v>
       </c>
       <c r="F700" t="s">
-        <v>122</v>
+        <v>1254</v>
       </c>
       <c r="G700" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H700" t="s">
         <v>4</v>
@@ -24828,10 +24822,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F701" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -24857,10 +24851,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F702" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -24886,10 +24880,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F703" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -24915,13 +24909,13 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="F704" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="G704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H704" t="s">
         <v>4</v>
@@ -24944,10 +24938,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F705" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -24973,13 +24967,13 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="F706" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="G706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -25002,13 +24996,13 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1265</v>
+        <v>1091</v>
       </c>
       <c r="F707" t="s">
-        <v>1266</v>
+        <v>1092</v>
       </c>
       <c r="G707" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -25060,13 +25054,13 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1093</v>
+        <v>1269</v>
       </c>
       <c r="F709" t="s">
-        <v>1094</v>
+        <v>1270</v>
       </c>
       <c r="G709" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -25089,13 +25083,13 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="F710" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G710" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -25118,10 +25112,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F711" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -25147,10 +25141,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="F712" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="G712" t="n">
         <v>2</v>
@@ -25176,10 +25170,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="F713" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -25205,13 +25199,13 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F714" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="G714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -25234,10 +25228,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="F715" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -25263,10 +25257,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F716" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -25292,10 +25286,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F717" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -25321,10 +25315,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F718" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25350,10 +25344,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="F719" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -25379,10 +25373,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F720" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -25408,10 +25402,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F721" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -25437,13 +25431,13 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F722" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -25466,10 +25460,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F723" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -25495,13 +25489,13 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F724" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="G724" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
@@ -25524,10 +25518,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F725" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25553,10 +25547,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F726" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -25582,10 +25576,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F727" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -25611,10 +25605,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F728" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -25640,10 +25634,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F729" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -25669,10 +25663,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F730" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -25698,10 +25692,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F731" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -25727,10 +25721,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F732" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -25756,10 +25750,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F733" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -25785,10 +25779,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F734" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -25814,10 +25808,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F735" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -25843,13 +25837,13 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F736" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G736" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -25872,10 +25866,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F737" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -25901,13 +25895,13 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F738" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G738" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H738" t="s">
         <v>4</v>
@@ -25930,10 +25924,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F739" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -25959,10 +25953,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F740" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -25988,13 +25982,13 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F741" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G741" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H741" t="s">
         <v>4</v>
@@ -26017,13 +26011,13 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F742" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G742" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -26046,13 +26040,13 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F743" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G743" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -26075,13 +26069,13 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F744" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G744" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -26104,10 +26098,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F745" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -26133,10 +26127,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F746" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26162,10 +26156,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F747" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -26191,10 +26185,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F748" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -26220,10 +26214,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F749" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -26249,13 +26243,13 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F750" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G750" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -26278,10 +26272,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F751" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26307,13 +26301,13 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F752" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G752" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -26336,10 +26330,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F753" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -26365,10 +26359,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F754" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -26394,10 +26388,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F755" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -26423,10 +26417,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F756" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -26452,10 +26446,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1363</v>
+        <v>1229</v>
       </c>
       <c r="F757" t="s">
-        <v>1364</v>
+        <v>1230</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -26510,13 +26504,13 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1231</v>
+        <v>1367</v>
       </c>
       <c r="F759" t="s">
-        <v>1232</v>
+        <v>1368</v>
       </c>
       <c r="G759" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -26539,10 +26533,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F760" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -26568,13 +26562,13 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="F761" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G761" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -26597,10 +26591,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F762" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -26626,10 +26620,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F763" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -26655,13 +26649,13 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F764" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -26687,7 +26681,7 @@
         <v>1377</v>
       </c>
       <c r="F765" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -26696,64 +26690,6 @@
         <v>4</v>
       </c>
       <c r="I765" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="766" spans="1:9">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1</v>
-      </c>
-      <c r="D766" t="n">
-        <v>765</v>
-      </c>
-      <c r="E766" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F766" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G766" t="n">
-        <v>35</v>
-      </c>
-      <c r="H766" t="s">
-        <v>4</v>
-      </c>
-      <c r="I766" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="767" spans="1:9">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C767" t="s">
-        <v>1</v>
-      </c>
-      <c r="D767" t="n">
-        <v>766</v>
-      </c>
-      <c r="E767" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F767" t="s">
-        <v>1381</v>
-      </c>
-      <c r="G767" t="n">
-        <v>1</v>
-      </c>
-      <c r="H767" t="s">
-        <v>4</v>
-      </c>
-      <c r="I767" t="n">
         <v>3</v>
       </c>
     </row>
